--- a/biology/Zoologie/Chalcosiinae/Chalcosiinae.xlsx
+++ b/biology/Zoologie/Chalcosiinae/Chalcosiinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chalcosiinae sont une sous-famille de lépidoptères (papillons) de la famille des Zygaenidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de la sous-famille couvre principalement le Sud-est asiatique tropical[1], avec une autre zone plus réduite (genre Aglaope) s'étendant de la France au Maroc en passant par la péninsule Ibérique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de la sous-famille couvre principalement le Sud-est asiatique tropical, avec une autre zone plus réduite (genre Aglaope) s'étendant de la France au Maroc en passant par la péninsule Ibérique.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses espèces de Chalcosiinae ont de vives couleurs aposématiques et/ou sont impliquées dans des complexes de mimétisme.
-Le dimorphisme sexuel est souvent important[2].
+Le dimorphisme sexuel est souvent important.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Chalcosiinae comportent environ 380 espèces, réparties dans environ 70 genres[1]. La liste exacte de ces genres varie en fonction des auteurs[3],[4],[5] ; celle donnée ci-dessous est une synthèse de plusieurs listes[3],[4],[5],[2],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Chalcosiinae comportent environ 380 espèces, réparties dans environ 70 genres. La liste exacte de ces genres varie en fonction des auteurs ; celle donnée ci-dessous est une synthèse de plusieurs listes.
 Achelura Kirby, 1892
 Agalope Walker, 1854
 Aglaope Latreille, 1809
@@ -627,7 +645,7 @@
 Isocrambia Jordan, 1907
 Milleriana Herrich-Schäffer, 1856
 Mimascaptesyle Hering, 1922
-Neochalcosia Yen &amp; Yang, 1997[1]
+Neochalcosia Yen &amp; Yang, 1997
 Opisoplatia Jordan, 1907
 Panherpina Bryk, 1936
 Philopator Moore, 1866
